--- a/학습자료/단답형/국어_복습_고유어.xlsx
+++ b/학습자료/단답형/국어_복습_고유어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,8 +661,8 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1. 아주 귀찮게 구는 말이나 행동을 싫증 내지 않고 잘 받아 주는 일.
-2. [민속 ] 토속 신앙에서, 무당이 굿을 할 때 한 사람이 소리하면 다른 사람이 따라서 같은 소리를 받아 하는 일.</t>
+          <t>1) 아주 귀찮게 구는 말이나 행동을 싫증 내지 않고 잘 받아 주는 일
+2 [민속 ] 토속 신앙에서, 무당이 굿을 할 때 한 사람이 소리하면 다른 사람이 따라서 같은 소리를 받아 하는 일</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>자기만 혼자 잘나고 영악한 체하는 사람을 낮잡아 이르는 말.</t>
+          <t>자기만 혼자 잘나고 영악한 체하는 사람을 낮잡아 이르는 말</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -706,7 +706,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>이유 없이 남의 말에 반대하기를 좋아하는 사람을 얕잡아 이르는 말.</t>
+          <t>이유 없이 남의 말에 반대하기를 좋아하는 사람을 얕잡아 이르는 말</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -728,8 +728,8 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1. 안쪽으로 오목하게 들어가거나 주름이 잡힌 물건.
-2. 마음씨가 바르지 못한 사람을 비유적으로 이르는 말.</t>
+          <t>1) 안쪽으로 오목하게 들어가거나 주름이 잡힌 물건
+2 마음씨가 바르지 못한 사람을 비유적으로 이르는 말</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -743,6 +743,116 @@
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>마음이나 생각 따위가 잘못 들다</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>빗들다</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>물건을 벨 때 칼이나 톱이 먹줄대로 나가지 아니 하고 비뚤어지게 잘못 들어가다</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>빗먹다</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>보통의 이치에서 벗어나 막되고 상스럽다</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>상없다</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>지나치게 치켜세우다</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>치살리다</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>자세히 모르고 대강 또는 반쯤만 알다</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>데알다</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>고유어</t>
         </is>
